--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -186,7 +186,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -739,7 +739,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -60,15 +60,6 @@
     <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
   </x:si>
   <x:si>
-    <x:t>1230165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه احمد محمد احمد حسن خشبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AYA AHMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240056</x:t>
   </x:si>
   <x:si>
@@ -277,6 +268,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Assem Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>
@@ -918,7 +918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.4284224537</x:v>
+        <x:v>45907.7945550926</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -950,7 +950,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.7945550926</x:v>
+        <x:v>45907.6650103357</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -982,7 +982,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6650103357</x:v>
+        <x:v>45914.4168445255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1014,7 +1014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4168445255</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1046,7 +1046,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45909.4310773958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1078,7 +1078,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4310773958</x:v>
+        <x:v>45907.414990081</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1110,7 +1110,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.414990081</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1142,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1174,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1206,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.4185712963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1238,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4185712963</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1270,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4209206018</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1298,11 +1298,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.4209206018</x:v>
+        <x:v>45907.670731794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1325,14 +1323,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.670731794</x:v>
+        <x:v>45909.6507341088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1364,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6507341088</x:v>
+        <x:v>45907.6663850694</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1396,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6663850694</x:v>
+        <x:v>45907.4218792477</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4218792477</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4252985301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4252985301</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.67659375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.67659375</x:v>
+        <x:v>45907.6656410069</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,11 +1584,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6656410069</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,14 +1609,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1650,7 +1650,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1682,7 +1682,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,15 +226,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdel Naby Darwish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid El Taher Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230223</x:t>
@@ -431,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1524,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.67659375</x:v>
+        <x:v>45907.6656410069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,11 +1543,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6656410069</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,14 +1568,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1618,7 +1609,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1650,7 +1641,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1682,7 +1673,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4145070602</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1710,11 +1701,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1737,14 +1726,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1767,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1804,11 +1795,9 @@
       <x:c r="C33" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6746290162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1825,36 +1814,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s"/>
-      <x:c r="E34" s="3">
-        <x:v>45907.6746290162</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Rowida Ahmed Aboelfotouh</x:t>
   </x:si>
   <x:si>
+    <x:t>1210228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد حازم احمد شفيق كامل حسن عبدالمنعم كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hazem Ahmed Shafik Kamil Hasan Abdel-Monem Kamil</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220241</x:t>
   </x:si>
   <x:si>
@@ -159,6 +168,15 @@
     <x:t>Asem Mohamed Ibrahim Aborehab</x:t>
   </x:si>
   <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -301,12 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Safwat Wahba Zekry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -422,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1133,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45929.1893975694</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1165,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1197,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4185712963</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1229,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4185712963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1261,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4209206018</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1289,9 +1301,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.670731794</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,16 +1328,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.6507341088</x:v>
+        <x:v>45907.4209206018</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,16 +1360,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6663850694</x:v>
+        <x:v>45907.670731794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1399,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4218792477</x:v>
+        <x:v>45909.6507341088</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1431,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.6663850694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1463,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4252985301</x:v>
+        <x:v>45907.4218792477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1495,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1527,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6656410069</x:v>
+        <x:v>45907.4252985301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,9 +1555,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1568,16 +1582,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6656410069</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1600,16 +1614,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1641,7 +1653,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1673,7 +1685,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1701,9 +1713,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1726,16 +1740,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.4145070602</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1758,16 +1772,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1795,9 +1807,11 @@
       <x:c r="C33" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s"/>
+      <x:c r="D33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6746290162</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1814,6 +1828,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45909.6620260764</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Asem Mohamed Ibrahim Aborehab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230053</x:t>
@@ -434,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1305,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.9547305556</x:v>
+        <x:v>45907.4209206018</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1333,11 +1324,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.4209206018</x:v>
+        <x:v>45907.670731794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,14 +1349,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.670731794</x:v>
+        <x:v>45909.6507341088</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1399,7 +1390,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6507341088</x:v>
+        <x:v>45907.6663850694</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1431,7 +1422,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6663850694</x:v>
+        <x:v>45907.4218792477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1463,7 +1454,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4218792477</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1495,7 +1486,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4252985301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1527,7 +1518,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4252985301</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1559,7 +1550,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6656410069</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1587,11 +1578,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6656410069</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1614,14 +1603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1653,7 +1644,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1685,7 +1676,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1717,7 +1708,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.4145070602</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1745,11 +1736,9 @@
       <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1772,14 +1761,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1811,7 +1802,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1828,38 +1819,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45909.6620260764</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35298.xlsx
+++ b/downloaded_files/EECS203_Lecture-35298.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>4240026</x:t>
@@ -285,7 +285,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230309</x:t>
